--- a/addinventorystocktest.xlsx
+++ b/addinventorystocktest.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11205" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="13380" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -18,70 +18,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <x:si>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재고수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
     <x:t>창고위치</x:t>
   </x:si>
   <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
     <x:t>상품</x:t>
   </x:si>
   <x:si>
+    <x:t>부품</x:t>
+  </x:si>
+  <x:si>
     <x:t>자재명</x:t>
   </x:si>
   <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용수량</x:t>
-  </x:si>
-  <x:si>
     <x:t>B-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 FD-M4000 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 RD-M4120 10단</x:t>
   </x:si>
   <x:si>
     <x:t>스탠드</x:t>
@@ -122,46 +122,16 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -976,46 +946,46 @@
   <x:dimension ref="A1:F11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J10" activeCellId="0" sqref="J10:J10"/>
+      <x:selection activeCell="C19" activeCellId="0" sqref="C19:C19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="10.57421875" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.44921875" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" t="s">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="F1" t="s">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2">
         <x:v>0</x:v>
@@ -1024,18 +994,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3">
         <x:v>0</x:v>
@@ -1044,18 +1014,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4">
         <x:v>0</x:v>
@@ -1064,18 +1034,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D5">
         <x:v>0</x:v>
@@ -1084,38 +1054,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D7">
         <x:v>0</x:v>
@@ -1124,18 +1094,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D8">
         <x:v>0</x:v>
@@ -1144,18 +1114,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D9">
         <x:v>0</x:v>
@@ -1164,18 +1134,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10">
         <x:v>0</x:v>
@@ -1184,18 +1154,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D11">
         <x:v>0</x:v>
@@ -1204,11 +1174,11 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F11" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1224,7 +1194,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1240,7 +1210,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/addinventorystocktest.xlsx
+++ b/addinventorystocktest.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="13380" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -16,82 +16,406 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="131">
+  <x:si>
+    <x:t>e근두운 36v 리튬이온 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서스펜션 시트포스트 pm-705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 200×50 통타이어 3번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BTR 무통증 스프링 쿠션 자전거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 15AH 배터리(기본형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp242 시트포스트[레일식]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노10단 디오레티아그라 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 킥보드 쇼바 튜닝용 발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전동킥보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AU테크 레드윙 전동킥보드 전용 계기판/속도계 일반형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MTB프론트 서스펜션 사이클링 앞 쇼바 알루미늄 포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 29인치 1.5~1.75 프레스타 튜브 40mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥시스 자전거 엠티비타이어 크로스마크 CROSSMARK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브러시리스 기어드 허브 모터 방수 9 핀 36V 250W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140mm 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6선 케이블 1.8m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠다드 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판+스로틀 레버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 에어바퀴 휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에르고노믹 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 더블림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노9단 카세트 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 500W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국자전거 포크 서스펜션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6구 12W 라이트 + 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAK9 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제로2 RHM V2 드롭바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT56 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 48mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 800W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노PD-M520L 페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 싱글림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 전면 기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>접이식 핸들 일자형 660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6010 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6000 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>훔페르트 컨테스트 핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 60mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레인보우 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노프로 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 1.8mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 2.0mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT66 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
   <x:si>
     <x:t>스람 x5 10단 뒷변속기</x:t>
   </x:si>
   <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 FD-M4000 9단</x:t>
+    <x:t>슈발베 29인치[27.5겸용] 프리라이드 광폭 튜브 (40mm) 폭 2.1~3.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모터 휠 전면 후면 브러시리스 기어드 허브 Ebike 변환 키트용 48V 500w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노DB-MT201 유압식 디스크 브레이크 (좌우 세트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노XT PD-M8100 페달 (XC용, SPD 클릿 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 허브모터 36v 450w 8×2.00-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M6000 데오레 10단 체인휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할로겐 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브 모터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 포스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수동식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LED 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적+전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안장 날개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롬 킥 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHS-PT1860 인터그레이티드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터바이크 인파워 DM 파워미터 크랭크세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36v 1600w BLDC 모터 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>튜브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크랭크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재고수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고위치</x:t>
   </x:si>
   <x:si>
     <x:t>가용수량</x:t>
   </x:si>
   <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 RD-M4120 10단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탠드</x:t>
+    <x:t>A-1</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="7">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -127,11 +451,6 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -141,7 +460,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="2">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -168,34 +487,6 @@
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -264,23 +555,14 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -943,242 +1225,1682 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:F11"/>
+  <x:dimension ref="A1:F83"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C19" activeCellId="0" sqref="C19:C19"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H44" activeCellId="0" sqref="H44:H44"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="10.57421875" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="11.8125" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="55.34765625" bestFit="1" customWidth="1"/>
     <x:col min="4" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" t="s">
-        <x:v>18</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>19</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>20</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>5</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>3</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>11</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D5">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E5">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D7">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D9">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E9">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D10">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E10">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D12">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E12">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D13">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E13">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D14">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E14">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D15">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E15">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D16">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E16">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D17">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E17">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D18">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E18">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E19">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D20">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E20">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D21">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E21">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D22">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E22">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F22" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D23">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E23">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F23" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F24" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D25">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E25">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D26">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E26">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F26" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D27">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E27">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F27" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D28">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E28">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F28" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E29">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F29" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D30">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E30">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F30" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D31">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E31">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F31" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D32">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E32">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F32" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D33">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E33">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F33" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D34">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E34">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F34" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D35">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E35">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F35" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D36">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E36">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F36" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D37">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E37">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F37" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D38">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E38">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F38" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D39">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E39">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F39" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D40">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E40">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F40" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D41">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E41">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F41" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D42">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E42">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F42" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E43">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F43" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D44">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E44">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F44" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D45">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E45">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F45" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" t="s">
+      <x:c r="D46">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E46">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F46" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D47">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E47">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F47" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D48">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E48">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D49">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E49">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D50">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E50">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F50" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D51">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E51">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F51" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D52">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E52">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F52" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D53">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E53">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F53" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F54" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D55">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E55">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F55" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D56">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E56">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F56" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D57">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E57">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F57" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D58">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E58">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F58" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D59">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E59">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F59" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="A60" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D60">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E60">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F60" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="A61" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F61" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="A62" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D62">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E62">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F62" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="A63" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D63">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E63">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F63" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="A64" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D64">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E64">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F64" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="A65" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D65">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E65">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F65" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="A66" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D66">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E66">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F66" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="A67" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D67">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E67">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F67" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="A68" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D68">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E68">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F68" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="A69" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D69">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E69">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F69" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="A70" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C70" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F70" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="A71" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C71" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F71" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="A72" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D72">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E72">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F72" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="A73" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D73">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E73">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F73" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="A74" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C9" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D9">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D10">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E10">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D11">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E11">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" t="s">
-        <x:v>21</x:v>
+      <x:c r="D74">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E74">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F74" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="A75" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C75" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D75">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E75">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F75" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="A76" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C76" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D76">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E76">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F76" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C77" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D77">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E77">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F77" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C78" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D78">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E78">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F78" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C79" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D79">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E79">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F79" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D80">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E80">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F80" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C81" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D81">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E81">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F81" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C82" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D82">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E82">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F82" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C83" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D83">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E83">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F83" t="s">
+        <x:v>125</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1194,7 +2916,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1210,7 +2932,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>